--- a/figuras_db/Capacity.xlsx
+++ b/figuras_db/Capacity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tipo</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Garante que os niveis seguem a ordem correcta</t>
+  </si>
+  <si>
+    <t>Knowlegment</t>
+  </si>
+  <si>
+    <t>StandardOfWork</t>
+  </si>
+  <si>
+    <t>Conhecimento esperado para o nivel</t>
+  </si>
+  <si>
+    <t>Padrão de trabalho esperado para o nivel</t>
   </si>
 </sst>
 </file>
@@ -439,7 +451,7 @@
   <dimension ref="G4:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,12 +506,26 @@
       </c>
     </row>
     <row r="8" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
